--- a/src/test/resources/testdata/OpenCartTestData.xlsx
+++ b/src/test/resources/testdata/OpenCartTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3C5BC635-B9C0-45FA-9E23-9726F043A920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B255A2FF-4827-4905-B27E-8BAD8B9B7B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84F042A3-CBF5-6E45-965F-623694DD3679}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{84F042A3-CBF5-6E45-965F-623694DD3679}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -13,28 +13,17 @@
     <sheet name="product" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J27"/>
+  <oleSize ref="A1:L27"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>firstname</t>
   </si>
@@ -91,6 +80,15 @@
   </si>
   <si>
     <t>9898978986</t>
+  </si>
+  <si>
+    <t>searchKey</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>totalImageCount</t>
   </si>
 </sst>
 </file>
@@ -471,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA50E69-2AF2-8A44-88A7-AAAB51605665}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="171" workbookViewId="0">
+    <sheetView zoomScaleNormal="171" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -575,12 +573,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B03A44D-35EF-B84C-932D-C209D7F2685D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="15.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>